--- a/data/financial_statements/socf/HAL.xlsx
+++ b/data/financial_statements/socf/HAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -116,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -473,1838 +587,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>665000000</v>
+      </c>
+      <c r="C2">
         <v>549000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>117000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>264000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>827000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>240000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>230000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>171000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-227000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-19000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-1681000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-1015000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-1654000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>296000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>77000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>152000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>668000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>434000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>508000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>47000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>-825000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>361000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>28000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>-32000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>-153000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>7000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>-3205000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>-2418000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>-26000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>-53000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>53000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>-641000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>905000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1205000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>775000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>616000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>795000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>708000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>648000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>-16000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>236000000</v>
+      </c>
+      <c r="C3">
         <v>234000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>238000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>232000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>231000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>224000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>223000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>226000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>229000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>230000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>251000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>348000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>372000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>417000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>420000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>416000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>422000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>400000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>390000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>394000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>393000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>394000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>386000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>383000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>386000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>375000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>396000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>346000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>402000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>417000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>456000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>560000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>557000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>535000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>524000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>510000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>497000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>481000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>474000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>448000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>70000000</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>344000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-533000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>12000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>32000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>106000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1794000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1073000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1735000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-30000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>200000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>61000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-267000000</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>265000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1119000000</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>262000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-219000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>435000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>-269000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1909000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>165000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>160000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>192000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>799000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>-387000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-535000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>360000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>-273000000</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
         <v>781000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-223000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-562000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-368000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-136000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-58000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-161000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-145000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>215000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1450000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-371000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>629000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>401000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-55000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-339000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>245000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-79000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-107000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-245000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-286000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-449000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-437000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>-178000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>217000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>313000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>141000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>228000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>72000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-144000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>777000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>763000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-42000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-745000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-419000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-175000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>407000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-243000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-207000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-406000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>-190000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-146000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-225000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-7000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-5000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-1000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>225000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>154000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>40000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-79000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>178000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-33000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-111000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-236000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-139000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-236000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-187000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-119000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>20000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-44000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>13000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-18000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>164000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>175000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>179000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>34000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>176000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>94000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>15000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-132000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>48000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-101000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-113000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-105000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>103000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-56000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-84000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-70000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>316000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>284000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>207000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>347000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>125000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>118000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>205000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-189000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-994000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>250000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-312000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-269000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-74000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>60000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-118000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>106000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>219000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>276000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>142000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>213000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>170000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>228000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>242000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>49000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-340000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-170000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-134000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>88000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-239000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-318000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-164000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>298000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>195000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>160000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>84000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>16000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>69000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>158000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>316000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>284000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-87000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>347000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>125000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>118000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-67000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-1000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-76000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-305000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-113000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>35000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-73000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-69000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-941000000</v>
+      </c>
+      <c r="C9">
         <v>67000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>14000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-95000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-511000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>31000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-45000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-186000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-118000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>417000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-262000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>19000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>296000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-158000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>280000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-46000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>448000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>177000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-378000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-525000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-596000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-71000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-219000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>232000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>181000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>159000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-52000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-348000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>445000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>222000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-546000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>226000000</v>
+      </c>
+      <c r="C10">
         <v>67000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>14000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-95000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-47000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>71000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-63000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-186000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-214000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>43000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>132000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>146000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>162000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-6000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-158000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>110000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>152000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>87000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>625000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-454000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-313000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-534000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-100000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-826000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1163000000</v>
+      </c>
+      <c r="C11">
         <v>753000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>376000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-50000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>682000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>617000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>409000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>203000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>638000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>420000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>598000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>225000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1167000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>871000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>451000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-44000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>852000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>777000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>956000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>572000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1011000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1106000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>346000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1059000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1041000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-3632000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-171000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>885000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>26000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1183000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>812000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1149000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>838000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1121000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>954000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1898000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1078000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1122000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>349000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-307000000</v>
+      </c>
+      <c r="C12">
         <v>-210000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-161000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-133000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-204000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-148000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-144000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-46000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-131000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-78000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-89000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-144000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-293000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-289000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-364000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-394000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-491000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-372000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-491000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-454000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-392000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-307000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-292000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-224000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-127000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-116000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-149000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-184000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-401000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-475000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-490000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-650000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-661000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-909000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-732000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-643000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-618000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-679000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-711000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-685000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13">
         <v>-2000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-31000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-21000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-21000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-18000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-148000000</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>-628000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-31000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-39000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-1000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-230000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-82000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-12000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="V14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14">
         <v>23000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>44000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>256000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>50000000</v>
-      </c>
-      <c r="AK14">
-        <v>62000000</v>
       </c>
       <c r="AL14">
         <v>62000000</v>
       </c>
       <c r="AM14">
+        <v>62000000</v>
+      </c>
+      <c r="AN14">
         <v>232000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15">
         <v>104000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>66000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-23000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-54000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>4000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-255000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>144000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-55000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-161000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-58000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-91000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-19000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-82000000</v>
+      </c>
+      <c r="C16">
         <v>-20000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-32000000</v>
-      </c>
-      <c r="D16">
-        <v>-22000000</v>
       </c>
       <c r="E16">
         <v>-22000000</v>
       </c>
       <c r="F16">
+        <v>-22000000</v>
+      </c>
+      <c r="G16">
         <v>61000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-15000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-16000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-11000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>15000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-27000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-21000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-22000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-30000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-36000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-17000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-42000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>388000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-424000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>80000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-38000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-27000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-6000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-13000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-34000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-13000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-36000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-24000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-28000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-14000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-63000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-32000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-54000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>326000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-208000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-26000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-204000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>11000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>30000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>53000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-389000000</v>
+      </c>
+      <c r="C17">
         <v>-230000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-193000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-155000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-226000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-87000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-159000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-62000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-142000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-63000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-116000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-165000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-315000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-319000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-400000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-411000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-554000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-2000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-1063000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-374000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-420000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-962000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-308000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-237000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-188000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-129000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-185000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-208000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-468000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-489000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-553000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-682000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-806000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-812000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-846000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-674000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-1003000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-676000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-540000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-651000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>-600000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-2000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-640000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-4000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-504000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-4000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-188000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-1000000</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>-2000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-657000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-2000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-4000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-8000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-9000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-436000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-8000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-10000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-57000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-1566000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-22000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-637000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-2512000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>7440000000</v>
       </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
       <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>-8000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-4000000</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>2968000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>-250000000</v>
+      </c>
+      <c r="F19">
         <v>79000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>87000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>118000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>195000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>158000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>186000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>167000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>332000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-300000000</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
         <v>-500000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>277000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-3341000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-965000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-50000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-108000000</v>
+      </c>
+      <c r="C20">
         <v>-110000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-109000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-108000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-40000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-41000000</v>
-      </c>
-      <c r="G20">
-        <v>-40000000</v>
       </c>
       <c r="H20">
         <v>-40000000</v>
@@ -2319,7 +2469,7 @@
         <v>-40000000</v>
       </c>
       <c r="L20">
-        <v>-158000000</v>
+        <v>-40000000</v>
       </c>
       <c r="M20">
         <v>-158000000</v>
@@ -2328,7 +2478,7 @@
         <v>-158000000</v>
       </c>
       <c r="O20">
-        <v>-157000000</v>
+        <v>-158000000</v>
       </c>
       <c r="P20">
         <v>-157000000</v>
@@ -2340,34 +2490,34 @@
         <v>-157000000</v>
       </c>
       <c r="S20">
-        <v>-158000000</v>
+        <v>-157000000</v>
       </c>
       <c r="T20">
         <v>-158000000</v>
       </c>
       <c r="U20">
-        <v>-157000000</v>
+        <v>-158000000</v>
       </c>
       <c r="V20">
         <v>-157000000</v>
       </c>
       <c r="W20">
-        <v>-156000000</v>
+        <v>-157000000</v>
       </c>
       <c r="X20">
         <v>-156000000</v>
       </c>
       <c r="Y20">
+        <v>-156000000</v>
+      </c>
+      <c r="Z20">
         <v>-155000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-156000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-155000000</v>
-      </c>
-      <c r="AB20">
-        <v>-154000000</v>
       </c>
       <c r="AC20">
         <v>-154000000</v>
@@ -2376,16 +2526,16 @@
         <v>-154000000</v>
       </c>
       <c r="AE20">
-        <v>-153000000</v>
+        <v>-154000000</v>
       </c>
       <c r="AF20">
         <v>-153000000</v>
       </c>
       <c r="AG20">
+        <v>-153000000</v>
+      </c>
+      <c r="AH20">
         <v>-152000000</v>
-      </c>
-      <c r="AH20">
-        <v>-127000000</v>
       </c>
       <c r="AI20">
         <v>-127000000</v>
@@ -2394,509 +2544,524 @@
         <v>-127000000</v>
       </c>
       <c r="AK20">
+        <v>-127000000</v>
+      </c>
+      <c r="AL20">
         <v>-128000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-106000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-115000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-116000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>15000000</v>
+      </c>
+      <c r="C21">
         <v>-2000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>36000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>80000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-63000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-1000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>5000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-81000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>5000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>8000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-88000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-103000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>15000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-92000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>10000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-367000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-158000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>7000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-21000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-144000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-202000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>231000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>63000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-98000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>74000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>12000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>77000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-50000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>75000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>20000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>51000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-336000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>81000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>117000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>113000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-236000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>141000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-104000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>21000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-343000000</v>
+      </c>
+      <c r="C22">
         <v>-712000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-75000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-668000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-28000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-542000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-45000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-223000000</v>
-      </c>
-      <c r="I22">
-        <v>-35000000</v>
       </c>
       <c r="J22">
         <v>-35000000</v>
       </c>
       <c r="K22">
+        <v>-35000000</v>
+      </c>
+      <c r="L22">
         <v>-34000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-903000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-145000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-142000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-253000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-155000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-338000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-751000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-151000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-179000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-151000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-369000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>18000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-1659000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-89000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-719000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-2655000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-77000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>7403000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>-79000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-141000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-102000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>-160000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-346000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-10000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-514000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-87000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-338000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-1184000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-145000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>-62000000</v>
+      </c>
+      <c r="C23">
         <v>-60000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-36000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-17000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-16000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-14000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-35000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-13000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-18000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-22000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-40000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-10000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-15000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-2000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-18000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-9000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-25000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-16000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-24000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-1000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-16000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-24000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>-11000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-62000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-12000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-13000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-28000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>8000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>31000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-23000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-25000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>79000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-11000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-28000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>57000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>15000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-15000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-8000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>369000000</v>
+      </c>
+      <c r="C24">
         <v>-249000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>72000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-890000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>412000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-26000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>212000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-117000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>448000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>304000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>426000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-883000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>697000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>395000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-204000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-628000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-49000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-1000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-274000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-5000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>439000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-241000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>32000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-1902000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>720000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>181000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-6485000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-484000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>7828000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-511000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>466000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>3000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>262000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-331000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>237000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-233000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>865000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>79000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-617000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-455000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2905,11 +3070,11 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>3044000000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -2917,11 +3082,11 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>2563000000</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -2929,11 +3094,11 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>2268000000</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
@@ -2941,11 +3106,11 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>2008000000</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
@@ -2953,11 +3118,11 @@
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>2337000000</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -2965,11 +3130,11 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>4009000000</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
         <v>0</v>
       </c>
@@ -2977,11 +3142,11 @@
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>10077000000</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
         <v>0</v>
       </c>
@@ -2989,11 +3154,11 @@
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>2291000000</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -3001,11 +3166,11 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>2356000000</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
         <v>0</v>
       </c>
@@ -3013,152 +3178,158 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>2484000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>369000000</v>
+      </c>
+      <c r="C26">
         <v>-249000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>72000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2154000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>412000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-26000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>212000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2446000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>448000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>304000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>426000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1385000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>697000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>395000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>-204000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1380000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-49000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-1000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-274000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>2332000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>439000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-241000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>32000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>2107000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>720000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>181000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-6485000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>9593000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7828000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-511000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>466000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2294000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>262000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-331000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>237000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>2123000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>865000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>79000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-617000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2029000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>-108000000</v>
+      </c>
+      <c r="C27">
         <v>-110000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-109000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-108000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-40000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-41000000</v>
-      </c>
-      <c r="G27">
-        <v>-40000000</v>
       </c>
       <c r="H27">
         <v>-40000000</v>
@@ -3173,7 +3344,7 @@
         <v>-40000000</v>
       </c>
       <c r="L27">
-        <v>-158000000</v>
+        <v>-40000000</v>
       </c>
       <c r="M27">
         <v>-158000000</v>
@@ -3182,7 +3353,7 @@
         <v>-158000000</v>
       </c>
       <c r="O27">
-        <v>-157000000</v>
+        <v>-158000000</v>
       </c>
       <c r="P27">
         <v>-157000000</v>
@@ -3194,34 +3365,34 @@
         <v>-157000000</v>
       </c>
       <c r="S27">
-        <v>-158000000</v>
+        <v>-157000000</v>
       </c>
       <c r="T27">
         <v>-158000000</v>
       </c>
       <c r="U27">
-        <v>-157000000</v>
+        <v>-158000000</v>
       </c>
       <c r="V27">
         <v>-157000000</v>
       </c>
       <c r="W27">
-        <v>-156000000</v>
+        <v>-157000000</v>
       </c>
       <c r="X27">
         <v>-156000000</v>
       </c>
       <c r="Y27">
+        <v>-156000000</v>
+      </c>
+      <c r="Z27">
         <v>-155000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-156000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-155000000</v>
-      </c>
-      <c r="AB27">
-        <v>-154000000</v>
       </c>
       <c r="AC27">
         <v>-154000000</v>
@@ -3230,16 +3401,16 @@
         <v>-154000000</v>
       </c>
       <c r="AE27">
-        <v>-153000000</v>
+        <v>-154000000</v>
       </c>
       <c r="AF27">
         <v>-153000000</v>
       </c>
       <c r="AG27">
+        <v>-153000000</v>
+      </c>
+      <c r="AH27">
         <v>-152000000</v>
-      </c>
-      <c r="AH27">
-        <v>-127000000</v>
       </c>
       <c r="AI27">
         <v>-127000000</v>
@@ -3248,403 +3419,418 @@
         <v>-127000000</v>
       </c>
       <c r="AK27">
+        <v>-127000000</v>
+      </c>
+      <c r="AL27">
         <v>-128000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-106000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-115000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-116000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
-        <v>0.3121</v>
+        <v>0.1702</v>
       </c>
       <c r="C28">
-        <v>0.2579</v>
+        <v>0.2762</v>
       </c>
       <c r="D28">
-        <v>0.2182</v>
+        <v>0.2302</v>
       </c>
       <c r="E28">
-        <v>0.3572</v>
+        <v>0.1942</v>
       </c>
       <c r="F28">
-        <v>0.3968</v>
+        <v>0.3116</v>
       </c>
       <c r="G28">
+        <v>0.3365</v>
+      </c>
+      <c r="H28">
         <v>0.3393</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.3772</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.4363</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.7256</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.7040999999999999</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.4035</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.3764</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.542</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.4659</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.349</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.3586</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.2334</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.2154</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.2123</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.1994</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.2277</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.2428</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.2063</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.1747</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.2333</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.2519</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.1892</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.1815</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.1867</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.1388</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.1491</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.1645</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.1058</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.09080000000000001</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.1139</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.1198</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.1476</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.0868</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.0751</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>-34000000</v>
+      </c>
+      <c r="C29">
         <v>-97000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-337000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-473000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>204000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>70000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>19000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-8000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>818000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>104000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>191000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-313000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>568000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>26000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-240000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-515000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-81000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-209000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-29000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-134000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-301000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-103000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>124000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-346000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>98000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>537000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-20000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>92000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-482000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>328000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>482000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>94000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>74000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-367000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-178000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-172000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>246000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>162000000</v>
       </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
       <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
         <v>-864000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30">
         <v>104000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-1000000</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>-10000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>4000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>94000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-5000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-99000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>4000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>141000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-19000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>-250000000</v>
+      </c>
+      <c r="F31">
         <v>79000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>87000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>118000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>195000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>158000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>186000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>167000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>332000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-300000000</v>
       </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
         <v>-500000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>277000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-3341000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-965000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-50000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>-250000000</v>
+      </c>
+      <c r="F32">
         <v>79000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>87000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-100000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>118000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>195000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>158000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>186000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>167000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>332000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-300000000</v>
       </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
         <v>-500000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>277000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-3341000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-965000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-50000000</v>
       </c>
     </row>
